--- a/data/rail.xlsx
+++ b/data/rail.xlsx
@@ -1,36 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091100888576/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA5512D-2B9A-4BCE-82DC-F6A6E3C1375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>% Change vs Last Year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,81 +81,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,3378 +384,3377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.47265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>% Change vs Last Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B2">
+        <v>974804</v>
+      </c>
+      <c r="C2">
+        <v>1.1027078156179648E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B3">
+        <v>992618</v>
+      </c>
+      <c r="C3">
+        <v>4.2209452372227618E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B4">
+        <v>973452</v>
+      </c>
+      <c r="C4">
+        <v>2.2718390297406632E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B5">
+        <v>980395</v>
+      </c>
+      <c r="C5">
+        <v>6.1955290197769131E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
         <v>45748</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B6">
         <v>981864</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6">
         <v>6.13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>45717</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B7">
         <v>977616</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C7">
         <v>4.55</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
         <v>45689</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B8">
         <v>938535</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C8">
         <v>-1.96</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>45658</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B9">
         <v>940451</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C9">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>45627</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B10">
         <v>950891</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C10">
+        <v>-2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>45597</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B11">
         <v>942754</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11">
         <v>-3.05</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>45566</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B12">
         <v>949910</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12">
         <v>-1.82</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
         <v>45536</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B13">
         <v>969058</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13">
         <v>-0.79</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
         <v>45505</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B14">
         <v>964172</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14">
         <v>0.87</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
         <v>45474</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B15">
         <v>952417</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
         <v>45444</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B16">
         <v>951828</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16">
         <v>-2.25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
         <v>45413</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B17">
         <v>923198</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17">
         <v>-6.11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
         <v>45383</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B18">
         <v>925137</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18">
         <v>-6.17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
         <v>45352</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B19">
         <v>935041</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19">
         <v>-4.17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
         <v>45323</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B20">
         <v>957261</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
         <v>45292</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B21">
         <v>928406</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21">
         <v>-7.98</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
         <v>45261</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B22">
         <v>972056</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22">
         <v>5.92</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
         <v>45231</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B23">
         <v>972383</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23">
         <v>0.38</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
         <v>45200</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B24">
         <v>967526</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24">
         <v>-1.01</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
         <v>45170</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25">
         <v>976787</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25">
         <v>1.53</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
         <v>45139</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B26">
         <v>955810</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1">
         <v>45108</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B27">
         <v>969615</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27">
         <v>-0.49</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
         <v>45078</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B28">
         <v>973705</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28">
         <v>-0.26</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
         <v>45047</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B29">
         <v>983303</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29">
         <v>1.07</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
         <v>45017</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B30">
         <v>985968</v>
       </c>
-      <c r="C26" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="C30">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
         <v>44986</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B31">
         <v>975708</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31">
         <v>-0.99</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
         <v>44958</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B32">
         <v>975832</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32">
         <v>-1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1">
         <v>44927</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B33">
         <v>1008954</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33">
         <v>2.95</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
         <v>44896</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B34">
         <v>917746</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34">
         <v>-5.3</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
         <v>44866</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B35">
         <v>968734</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
         <v>44835</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B36">
         <v>977367</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="C36">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
         <v>44805</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B37">
         <v>962092</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="C37">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
         <v>44774</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B38">
         <v>972789</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38">
         <v>3.21</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
         <v>44743</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B39">
         <v>974370</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39">
         <v>0.92</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
         <v>44713</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B40">
         <v>976273</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40">
         <v>-1.17</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
         <v>44682</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B41">
         <v>972911</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41">
         <v>-3.26</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
         <v>44652</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B42">
         <v>966176</v>
       </c>
-      <c r="C38" t="n">
-        <v>-2.49</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="C42">
+        <v>-2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
         <v>44621</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B43">
         <v>985510</v>
       </c>
-      <c r="C39" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="C43">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
         <v>44593</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B44">
         <v>985664</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44">
         <v>9.98</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1">
         <v>44562</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B45">
         <v>980056</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45">
         <v>-1.99</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
         <v>44531</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B46">
         <v>969105</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46">
         <v>2.13</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
         <v>44501</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B47">
         <v>973076</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47">
         <v>2.41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
         <v>44470</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B48">
         <v>971986</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48">
         <v>3.99</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
         <v>44440</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B49">
         <v>964795</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49">
         <v>4.33</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
         <v>44409</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B50">
         <v>942537</v>
       </c>
-      <c r="C46" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="C50">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
         <v>44378</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B51">
         <v>965509</v>
       </c>
-      <c r="C47" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="C51">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
         <v>44348</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B52">
         <v>987837</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C52">
         <v>18.89</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
         <v>44317</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B53">
         <v>1005684</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C53">
         <v>31.53</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
         <v>44287</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B54">
         <v>990808</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C54">
         <v>21.25</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
         <v>44256</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B55">
         <v>974657</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C55">
         <v>3.19</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
         <v>44228</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B56">
         <v>896203</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C56">
         <v>-8.33</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1">
         <v>44197</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B57">
         <v>999992</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C57">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1">
         <v>44166</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B58">
         <v>948938</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C58">
         <v>-5.38</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1">
         <v>44136</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B59">
         <v>950181</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C59">
         <v>-5.68</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
         <v>44105</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B60">
         <v>934672</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C60">
         <v>-7.23</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1">
         <v>44075</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B61">
         <v>924750</v>
       </c>
-      <c r="C57" t="n">
-        <v>-10.12</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="C61">
+        <v>-10.119999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1">
         <v>44044</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B62">
         <v>896773</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C62">
         <v>-15.82</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1">
         <v>44013</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B63">
         <v>884175</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C63">
         <v>-17.25</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1">
         <v>43983</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B64">
         <v>830850</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C64">
         <v>-22.02</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1">
         <v>43952</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B65">
         <v>764605</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C65">
         <v>-29.71</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1">
         <v>43922</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B66">
         <v>817145</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C66">
         <v>-25.96</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1">
         <v>43891</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B67">
         <v>944564</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C67">
         <v>-7.76</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1">
         <v>43862</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B68">
         <v>977652</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C68">
         <v>-8.58</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1">
         <v>43831</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B69">
         <v>1019309</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C69">
         <v>-6.32</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1">
         <v>43800</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B70">
         <v>1002928</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C70">
         <v>-9.68</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1">
         <v>43770</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B71">
         <v>1007407</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C71">
         <v>-7.85</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1">
         <v>43739</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B72">
         <v>1007463</v>
       </c>
-      <c r="C68" t="n">
-        <v>-8.710000000000001</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="C72">
+        <v>-8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1">
         <v>43709</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B73">
         <v>1028829</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C73">
         <v>-7.07</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1">
         <v>43678</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B74">
         <v>1065307</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C74">
         <v>-4.58</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1">
         <v>43647</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B75">
         <v>1068502</v>
       </c>
-      <c r="C71" t="n">
-        <v>-4.1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="C75">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1">
         <v>43617</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B76">
         <v>1065427</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C76">
         <v>-5.54</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1">
         <v>43586</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B77">
         <v>1087731</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C77">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1">
         <v>43556</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B78">
         <v>1103654</v>
       </c>
-      <c r="C74" t="n">
-        <v>-1.11</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="C78">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1">
         <v>43525</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B79">
         <v>1024059</v>
       </c>
-      <c r="C75" t="n">
-        <v>-9.550000000000001</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="C79">
+        <v>-9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1">
         <v>43497</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B80">
         <v>1069393</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C80">
         <v>-3.63</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1">
         <v>43466</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B81">
         <v>1088033</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C81">
         <v>2.36</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1">
         <v>43435</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B82">
         <v>1110379</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C82">
         <v>1.33</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1">
         <v>43405</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B83">
         <v>1093283</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C83">
         <v>0.18</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1">
         <v>43374</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B84">
         <v>1103618</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C84">
         <v>1.3</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1">
         <v>43344</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B85">
         <v>1107123</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C85">
         <v>3.2</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1">
         <v>43313</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B86">
         <v>1116455</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C86">
         <v>3.74</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1">
         <v>43282</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B87">
         <v>1114150</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C87">
         <v>3.77</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1">
         <v>43252</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B88">
         <v>1127881</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C88">
         <v>2</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1">
         <v>43221</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B89">
         <v>1123888</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C89">
         <v>2.62</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1">
         <v>43191</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B90">
         <v>1116038</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C90">
         <v>2.94</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1">
         <v>43160</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B91">
         <v>1132219</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C91">
         <v>3.37</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1">
         <v>43132</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B92">
         <v>1109694</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C92">
         <v>-0.85</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1">
         <v>43101</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B93">
         <v>1062937</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C93">
         <v>-3.12</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1">
         <v>43070</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B94">
         <v>1095855</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C94">
         <v>1.07</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1">
         <v>43040</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B95">
         <v>1091336</v>
       </c>
-      <c r="C91" t="n">
-        <v>-1.13</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="C95">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1">
         <v>43009</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B96">
         <v>1089409</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C96">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1">
         <v>42979</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B97">
         <v>1072811</v>
       </c>
-      <c r="C93" t="n">
-        <v>-2.05</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="C97">
+        <v>-2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1">
         <v>42948</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B98">
         <v>1076241</v>
       </c>
-      <c r="C94" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="C98">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1">
         <v>42917</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B99">
         <v>1073636</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C99">
         <v>-0.33</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1">
         <v>42887</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B100">
         <v>1105715</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C100">
         <v>5.61</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1">
         <v>42856</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B101">
         <v>1095155</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C101">
         <v>7.66</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1">
         <v>42826</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B102">
         <v>1084151</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C102">
         <v>8.1</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1">
         <v>42795</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B103">
         <v>1095262</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C103">
         <v>7.08</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1">
         <v>42767</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B104">
         <v>1119257</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C104">
         <v>7.62</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1">
         <v>42736</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B105">
         <v>1097175</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C105">
         <v>4.59</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1">
         <v>42705</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B106">
         <v>1084273</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C106">
         <v>0.62</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1">
         <v>42675</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B107">
         <v>1103834</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C107">
         <v>0.67</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1">
         <v>42644</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B108">
         <v>1091225</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C108">
         <v>-5.12</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1">
         <v>42614</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B109">
         <v>1095316</v>
       </c>
-      <c r="C105" t="n">
-        <v>-5.1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="C109">
+        <v>-5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1">
         <v>42583</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B110">
         <v>1077720</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C110">
         <v>-7.2</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1">
         <v>42552</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B111">
         <v>1077238</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C111">
         <v>-7.44</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1">
         <v>42522</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B112">
         <v>1046953</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C112">
         <v>-7.1</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1">
         <v>42491</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B113">
         <v>1017205</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C113">
         <v>-11.59</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1">
         <v>42461</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B114">
         <v>1002886</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C114">
         <v>-16.02</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1">
         <v>42430</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B115">
         <v>1022876</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C115">
         <v>-14.51</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1">
         <v>42401</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B116">
         <v>1040030</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C116">
         <v>-11.3</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1">
         <v>42370</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B117">
         <v>1049012</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C117">
         <v>-16.59</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1">
         <v>42339</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B118">
         <v>1077545</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C118">
         <v>-16.04</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1">
         <v>42309</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B119">
         <v>1096535</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C119">
         <v>-10.16</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1">
         <v>42278</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B120">
         <v>1150083</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C120">
         <v>-6.84</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1">
         <v>42248</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B121">
         <v>1154192</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C121">
         <v>-5.4</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1">
         <v>42217</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B122">
         <v>1161376</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C122">
         <v>-5.13</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="1">
         <v>42186</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B123">
         <v>1163880</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C123">
         <v>-7.05</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1">
         <v>42156</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B124">
         <v>1127004</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C124">
         <v>-8.57</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1">
         <v>42125</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B125">
         <v>1150595</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C125">
         <v>-9.1</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1">
         <v>42095</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B126">
         <v>1194257</v>
       </c>
-      <c r="C122" t="n">
-        <v>-4.94</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="C126">
+        <v>-4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1">
         <v>42064</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B127">
         <v>1196496</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C127">
         <v>-3.12</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1">
         <v>42036</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B128">
         <v>1172486</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C128">
         <v>-0.79</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1">
         <v>42005</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B129">
         <v>1257643</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C129">
         <v>6.11</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1">
         <v>41974</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B130">
         <v>1283382</v>
       </c>
-      <c r="C126" t="n">
-        <v>8.710000000000001</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="C130">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1">
         <v>41944</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B131">
         <v>1220491</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C131">
         <v>1.59</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1">
         <v>41913</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B132">
         <v>1234572</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C132">
         <v>4.78</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1">
         <v>41883</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B133">
         <v>1220042</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C133">
         <v>2.97</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1">
         <v>41852</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B134">
         <v>1224151</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C134">
         <v>2.52</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1">
         <v>41821</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B135">
         <v>1252159</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C135">
         <v>6.06</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1">
         <v>41791</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B136">
         <v>1232684</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C136">
         <v>3.28</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1">
         <v>41760</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B137">
         <v>1265792</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C137">
         <v>6.05</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1">
         <v>41730</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B138">
         <v>1256371</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C138">
         <v>7.04</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1">
         <v>41699</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B139">
         <v>1235060</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C139">
         <v>4.43</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1">
         <v>41671</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B140">
         <v>1181870</v>
       </c>
-      <c r="C136" t="n">
-        <v>-1.13</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="C140">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1">
         <v>41640</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B141">
         <v>1185200</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C141">
         <v>1.04</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1">
         <v>41609</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B142">
         <v>1180510</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C142">
         <v>-1.59</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1">
         <v>41579</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B143">
         <v>1201441</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C143">
         <v>2.08</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1">
         <v>41548</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B144">
         <v>1178226</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C144">
         <v>1.27</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1">
         <v>41518</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B145">
         <v>1184853</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C145">
         <v>0.42</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1">
         <v>41487</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B146">
         <v>1194017</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C146">
         <v>0.49</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1">
         <v>41456</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B147">
         <v>1180600</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C147">
         <v>-0.77</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1">
         <v>41426</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B148">
         <v>1193531</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C148">
         <v>-0.68</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1">
         <v>41395</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B149">
         <v>1193615</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C149">
         <v>0.66</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1">
         <v>41365</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B150">
         <v>1173782</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C150">
         <v>0.1</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1">
         <v>41334</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B151">
         <v>1182682</v>
       </c>
-      <c r="C147" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="C151">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1">
         <v>41306</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B152">
         <v>1195382</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C152">
         <v>-0.72</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1">
         <v>41275</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B153">
         <v>1172975</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C153">
         <v>-6.47</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1">
         <v>41244</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B154">
         <v>1199534</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C154">
         <v>-6.29</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
         <v>41214</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B155">
         <v>1176958</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C155">
         <v>-4.88</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
         <v>41183</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B156">
         <v>1163450</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C156">
         <v>-7.01</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1">
         <v>41153</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B157">
         <v>1179928</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C157">
         <v>-4.28</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
         <v>41122</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B158">
         <v>1188240</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C158">
         <v>-1.91</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1">
         <v>41091</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B159">
         <v>1189711</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C159">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1">
         <v>41061</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B160">
         <v>1201702</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C160">
         <v>-1.57</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
         <v>41030</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B161">
         <v>1185775</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C161">
         <v>-2.93</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1">
         <v>41000</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B162">
         <v>1172650</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C162">
         <v>-5.39</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1">
         <v>40969</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B163">
         <v>1184325</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C163">
         <v>-5.52</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1">
         <v>40940</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B164">
         <v>1204103</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C164">
         <v>-2.72</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1">
         <v>40909</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B165">
         <v>1254075</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C165">
         <v>0.99</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
         <v>40878</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B166">
         <v>1280076</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C166">
         <v>5.53</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1">
         <v>40848</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B167">
         <v>1237323</v>
       </c>
-      <c r="C163" t="n">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="C167">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
         <v>40817</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B168">
         <v>1251192</v>
       </c>
-      <c r="C164" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="C168">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1">
         <v>40787</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B169">
         <v>1232706</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C169">
         <v>0.82</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1">
         <v>40756</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B170">
         <v>1211323</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C170">
         <v>0.09</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1">
         <v>40725</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B171">
         <v>1204143</v>
       </c>
-      <c r="C167" t="n">
-        <v>-1.12</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="C171">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1">
         <v>40695</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B172">
         <v>1220867</v>
       </c>
-      <c r="C168" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="C172">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1">
         <v>40664</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B173">
         <v>1221617</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C173">
         <v>0.66</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1">
         <v>40634</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B174">
         <v>1239398</v>
       </c>
-      <c r="C170" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="C174">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1">
         <v>40603</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B175">
         <v>1253460</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C175">
         <v>3.88</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1">
         <v>40575</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B176">
         <v>1237816</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C176">
         <v>4.5</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1">
         <v>40544</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B177">
         <v>1241775</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C177">
         <v>8.08</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1">
         <v>40513</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B178">
         <v>1213027</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C178">
         <v>8.67</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1">
         <v>40483</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B179">
         <v>1209279</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C179">
         <v>5.24</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1">
         <v>40452</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B180">
         <v>1223060</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C180">
         <v>9.52</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1">
         <v>40422</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B181">
         <v>1222704</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C181">
         <v>7.84</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1">
         <v>40391</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B182">
         <v>1210259</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C182">
         <v>7.02</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1">
         <v>40360</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B183">
         <v>1217826</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C183">
         <v>6.13</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1">
         <v>40330</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B184">
         <v>1207252</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C184">
         <v>10.15</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1">
         <v>40299</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B185">
         <v>1213583</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C185">
         <v>16.11</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1">
         <v>40269</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B186">
         <v>1225801</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C186">
         <v>15.55</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1">
         <v>40238</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B187">
         <v>1206689</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C187">
         <v>7.59</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1">
         <v>40210</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B188">
         <v>1184531</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C188">
         <v>-1.67</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1">
         <v>40179</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B189">
         <v>1148935</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C189">
         <v>-0.64</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1">
         <v>40148</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B190">
         <v>1116249</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C190">
         <v>-5.42</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1">
         <v>40118</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B191">
         <v>1149120</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C191">
         <v>-8.43</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1">
         <v>40087</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B192">
         <v>1116722</v>
       </c>
-      <c r="C188" t="n">
-        <v>-16.35</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="C192">
+        <v>-16.350000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1">
         <v>40057</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B193">
         <v>1133821</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C193">
         <v>-14.32</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1">
         <v>40026</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B194">
         <v>1130838</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C194">
         <v>-17.05</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1">
         <v>39995</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B195">
         <v>1147532</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C195">
         <v>-17.41</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1">
         <v>39965</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B196">
         <v>1096027</v>
       </c>
-      <c r="C192" t="n">
-        <v>-18.83</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="C196">
+        <v>-18.829999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1">
         <v>39934</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B197">
         <v>1045212</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C197">
         <v>-24.06</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="1">
         <v>39904</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B198">
         <v>1060813</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C198">
         <v>-23</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="1">
         <v>39873</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B199">
         <v>1121524</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C199">
         <v>-17.78</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="1">
         <v>39845</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B200">
         <v>1204705</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C200">
         <v>-12.36</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="1">
         <v>39814</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B201">
         <v>1156349</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C201">
         <v>-15.99</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="1">
         <v>39783</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B202">
         <v>1180228</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C202">
         <v>-14.39</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1">
         <v>39753</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B203">
         <v>1254898</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C203">
         <v>-9.84</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="1">
         <v>39722</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B204">
         <v>1335046</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C204">
         <v>-3.01</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="1">
         <v>39692</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B205">
         <v>1323261</v>
       </c>
-      <c r="C201" t="n">
-        <v>-4.1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="C205">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="1">
         <v>39661</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B206">
         <v>1363337</v>
       </c>
-      <c r="C202" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="C206">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="1">
         <v>39630</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B207">
         <v>1389378</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C207">
         <v>2.21</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="1">
         <v>39600</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B208">
         <v>1350240</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C208">
         <v>-3.41</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="1">
         <v>39569</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B209">
         <v>1376440</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C209">
         <v>0.9</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="1">
         <v>39539</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B210">
         <v>1377643</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C210">
         <v>0.85</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="1">
         <v>39508</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B211">
         <v>1364097</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C211">
         <v>0.33</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="1">
         <v>39479</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B212">
         <v>1374573</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C212">
         <v>1.73</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="1">
         <v>39448</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B213">
         <v>1376384</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C213">
         <v>1.29</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="1">
         <v>39417</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B214">
         <v>1378680</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C214">
         <v>-2.67</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="1">
         <v>39387</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B215">
         <v>1391789</v>
       </c>
-      <c r="C211" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="C215">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="1">
         <v>39356</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B216">
         <v>1376498</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C216">
         <v>0.19</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="1">
         <v>39326</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B217">
         <v>1379836</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C217">
         <v>-0.65</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="1">
         <v>39295</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B218">
         <v>1372802</v>
       </c>
-      <c r="C214" t="n">
-        <v>-1.16</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="C218">
+        <v>-1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="1">
         <v>39264</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B219">
         <v>1359385</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C219">
         <v>-2.66</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="1">
         <v>39234</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B220">
         <v>1397961</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C220">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="1">
         <v>39203</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B221">
         <v>1364178</v>
       </c>
-      <c r="C217" t="n">
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="C221">
+        <v>-4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="1">
         <v>39173</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B222">
         <v>1366089</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C222">
         <v>-1.95</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="1">
         <v>39142</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B223">
         <v>1359552</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C223">
         <v>-3.12</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="1">
         <v>39114</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B224">
         <v>1351139</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C224">
         <v>-3.74</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="1">
         <v>39083</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B225">
         <v>1358839</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C225">
         <v>-5.96</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="1">
         <v>39052</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B226">
         <v>1416438</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C226">
         <v>2.06</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="1">
         <v>39022</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B227">
         <v>1358719</v>
       </c>
-      <c r="C223" t="n">
-        <v>-1.11</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="C227">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="1">
         <v>38991</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B228">
         <v>1373843</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C228">
         <v>1.85</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="1">
         <v>38961</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B229">
         <v>1388904</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C229">
         <v>0.43</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="1">
         <v>38930</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B230">
         <v>1388956</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C230">
         <v>1.27</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="1">
         <v>38899</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B231">
         <v>1396604</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C231">
         <v>1.6</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="1">
         <v>38869</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B232">
         <v>1423202</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C232">
         <v>3.94</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="1">
         <v>38838</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B233">
         <v>1430688</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C233">
         <v>4.17</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="1">
         <v>38808</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B234">
         <v>1393238</v>
       </c>
-      <c r="C230" t="n">
-        <v>-1.15</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="C234">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="1">
         <v>38777</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B235">
         <v>1403342</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C235">
         <v>0.16</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="1">
         <v>38749</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B236">
         <v>1403614</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C236">
         <v>-2.04</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="1">
         <v>38718</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B237">
         <v>1444913</v>
       </c>
-      <c r="C233" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="C237">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="1">
         <v>38687</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B238">
         <v>1387844</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C238">
         <v>0.63</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="1">
         <v>38657</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B239">
         <v>1374023</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C239">
         <v>-0.83</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="1">
         <v>38626</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B240">
         <v>1348842</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C240">
         <v>-2.12</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="1">
         <v>38596</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B241">
         <v>1382962</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C241">
         <v>2.16</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="1">
         <v>38565</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B242">
         <v>1371567</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C242">
         <v>0.23</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="1">
         <v>38534</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B243">
         <v>1374617</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C243">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="1">
         <v>38504</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B244">
         <v>1369204</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C244">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="1">
         <v>38473</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B245">
         <v>1373428</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C245">
         <v>-1.31</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="1">
         <v>38443</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B246">
         <v>1409463</v>
       </c>
-      <c r="C242" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="C246">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="1">
         <v>38412</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B247">
         <v>1401100</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C247">
         <v>2.02</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="1">
         <v>38384</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B248">
         <v>1432895</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C248">
         <v>5.44</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="1">
         <v>38353</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B249">
         <v>1374766</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C249">
         <v>0.21</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="1">
         <v>38322</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B250">
         <v>1379208</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C250">
         <v>1</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="1">
         <v>38292</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B251">
         <v>1385575</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C251">
         <v>2.02</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="1">
         <v>38261</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B252">
         <v>1378095</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C252">
         <v>1.3</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="1">
         <v>38231</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B253">
         <v>1353733</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C253">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="1">
         <v>38200</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B254">
         <v>1368454</v>
       </c>
-      <c r="C250" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="C254">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="1">
         <v>38169</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B255">
         <v>1379005</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C255">
         <v>3.36</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="1">
         <v>38139</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B256">
         <v>1369954</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C256">
         <v>2.95</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="1">
         <v>38108</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B257">
         <v>1391676</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C257">
         <v>5.37</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="1">
         <v>38078</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B258">
         <v>1380928</v>
       </c>
-      <c r="C254" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="C258">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="1">
         <v>38047</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B259">
         <v>1373386</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C259">
         <v>4.46</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="1">
         <v>38018</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B260">
         <v>1358904</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C260">
         <v>2.5</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="1">
         <v>37987</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B261">
         <v>1371931</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C261">
         <v>3.36</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="1">
         <v>37956</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B262">
         <v>1365565</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C262">
         <v>1.6</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" s="1">
         <v>37926</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B263">
         <v>1358107</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C263">
         <v>1.72</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" s="1">
         <v>37895</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B264">
         <v>1360452</v>
       </c>
-      <c r="C260" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="C264">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="1">
         <v>37865</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B265">
         <v>1356579</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C265">
         <v>0.93</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="1">
         <v>37834</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B266">
         <v>1340737</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C266">
         <v>-1.18</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" s="1">
         <v>37803</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B267">
         <v>1334161</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C267">
         <v>-0.61</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="1">
         <v>37773</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B268">
         <v>1330758</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C268">
         <v>-1.57</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="1">
         <v>37742</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B269">
         <v>1320722</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C269">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="1">
         <v>37712</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B270">
         <v>1325428</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C270">
         <v>0.01</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="1">
         <v>37681</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B271">
         <v>1314810</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C271">
         <v>1.96</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="1">
         <v>37653</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B272">
         <v>1325726</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C272">
         <v>-1.26</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" s="1">
         <v>37622</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B273">
         <v>1327334</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C273">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" s="1">
         <v>37591</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B274">
         <v>1344048</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C274">
         <v>0.24</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" s="1">
         <v>37561</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B275">
         <v>1335149</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C275">
         <v>-1.44</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" s="1">
         <v>37530</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B276">
         <v>1326850</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C276">
         <v>-1.99</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" s="1">
         <v>37500</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B277">
         <v>1344062</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C277">
         <v>0.64</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" s="1">
         <v>37469</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B278">
         <v>1356735</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C278">
         <v>1.85</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" s="1">
         <v>37438</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B279">
         <v>1342374</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C279">
         <v>2.25</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" s="1">
         <v>37408</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B280">
         <v>1351933</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C280">
         <v>0.53</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="1">
         <v>37377</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B281">
         <v>1326450</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C281">
         <v>-2.37</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="1">
         <v>37347</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B282">
         <v>1325272</v>
       </c>
-      <c r="C278" t="n">
-        <v>-2.55</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="C282">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" s="1">
         <v>37316</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B283">
         <v>1289535</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C283">
         <v>-6.01</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" s="1">
         <v>37288</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B284">
         <v>1342611</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C284">
         <v>-1.21</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" s="1">
         <v>37257</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B285">
         <v>1341605</v>
       </c>
-      <c r="C281" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="C285">
+        <v>-0.94</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" s="1">
         <v>37226</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B286">
         <v>1340861</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C286">
         <v>1.9</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" s="1">
         <v>37196</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B287">
         <v>1354657</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C287">
         <v>2.35</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" s="1">
         <v>37165</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B288">
         <v>1353775</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C288">
         <v>0.19</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" s="1">
         <v>37135</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B289">
         <v>1335473</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C289">
         <v>-2.64</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="1">
         <v>37104</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B290">
         <v>1332120</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C290">
         <v>-1.69</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" s="1">
         <v>37073</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B291">
         <v>1312814</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C291">
         <v>-3.01</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" s="1">
         <v>37043</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B292">
         <v>1344749</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C292">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="1">
         <v>37012</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B293">
         <v>1358586</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C293">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" s="1">
         <v>36982</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B294">
         <v>1360001</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C294">
         <v>0.37</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" s="1">
         <v>36951</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B295">
         <v>1371970</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C295">
         <v>0.66</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" s="1">
         <v>36923</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B296">
         <v>1359000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C296">
         <v>-0.72</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" s="1">
         <v>36892</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B297">
         <v>1354318</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C297">
         <v>-1.41</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" s="1">
         <v>36861</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B298">
         <v>1315864</v>
       </c>
-      <c r="C294" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" s="1">
         <v>36831</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B299">
         <v>1323560</v>
       </c>
-      <c r="C295" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" s="1">
         <v>36800</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B300">
         <v>1351187</v>
       </c>
-      <c r="C296" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" s="1">
         <v>36770</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B301">
         <v>1371644</v>
       </c>
-      <c r="C297" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" s="1">
         <v>36739</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B302">
         <v>1354961</v>
       </c>
-      <c r="C298" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="1">
         <v>36708</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B303">
         <v>1353621</v>
       </c>
-      <c r="C299" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="1">
         <v>36678</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B304">
         <v>1346753</v>
       </c>
-      <c r="C300" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="1">
         <v>36647</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B305">
         <v>1359065</v>
       </c>
-      <c r="C301" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="1">
         <v>36617</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B306">
         <v>1354922</v>
       </c>
-      <c r="C302" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="1">
         <v>36586</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B307">
         <v>1363006</v>
       </c>
-      <c r="C303" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="1">
         <v>36557</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B308">
         <v>1368790</v>
       </c>
-      <c r="C304" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="1">
         <v>36526</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B309">
         <v>1373725</v>
-      </c>
-      <c r="C305" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/rail.xlsx
+++ b/data/rail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091100888576/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA5512D-2B9A-4BCE-82DC-F6A6E3C1375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2EA5512D-2B9A-4BCE-82DC-F6A6E3C1375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CCDACF-F88D-459D-A66A-2626394BE7BE}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
         <v>974804</v>
       </c>
       <c r="C2">
-        <v>1.1027078156179648E-2</v>
+        <v>1.1027078156179648</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -424,7 +424,7 @@
         <v>992618</v>
       </c>
       <c r="C3">
-        <v>4.2209452372227618E-2</v>
+        <v>4.2209452372227618</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -435,7 +435,7 @@
         <v>973452</v>
       </c>
       <c r="C4">
-        <v>2.2718390297406632E-2</v>
+        <v>2.2718390297406632</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -446,7 +446,7 @@
         <v>980395</v>
       </c>
       <c r="C5">
-        <v>6.1955290197769131E-2</v>
+        <v>6.1955290197769131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
